--- a/fuentes/contenidos/grado09/guion04/ESCALETA_CN_09_04_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion04/ESCALETA_CN_09_04_CO.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado09\guion04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="8985" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="8925"/>
   </bookViews>
   <sheets>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$U$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$111</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
@@ -644,9 +639,6 @@
     <t>Recurso F8-01</t>
   </si>
   <si>
-    <t>Recurso F10-01</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -802,6 +794,9 @@
   </si>
   <si>
     <t>Mediante este recurso se presenta un panorama histórico de la clasificación biológica, haciendo énfasis en sus representantes y las contribuciones de cada uno de ellos. Los botones de la izquierda hablan sobre: • Aristóteles (384 a.C.) • Carlos Linneo (1707 – 1778) • Erns Haeckel (1834 – 1919) • Herbert Copeland (1902 – 1968) • Robert Whittaker (1920 – 1980) • Lynn Margulis (1938 – 2011) • Carl Woese (1928 – 2012)</t>
+  </si>
+  <si>
+    <t>Recurso F7-01</t>
   </si>
 </sst>
 </file>
@@ -1111,25 +1106,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1154,6 +1137,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,7 +1211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1251,7 +1246,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1460,1971 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O133"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="34" style="16" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="18" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="17" style="16" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="16"/>
-    <col min="14" max="14" width="24.28515625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="16" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-    </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-    </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-    </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-    </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-    </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-    </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-    </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-    </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-    </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-    </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-    </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-    </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-    </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-    </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-    </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-    </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-    </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-    </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-    </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-    </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-    </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-    </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-    </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-    </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-    </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-    </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-    </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-    </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-    </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-    </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-    </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-    </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-    </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-    </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-    </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-    </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-    </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-    </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-    </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-    </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-    </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-    </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-    </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-    </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-    </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-    </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-    </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-    </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-    </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-    </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-    </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-    </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-    </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-    </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-    </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-    </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-    </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-    </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-    </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
-    </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="17"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-    </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-    </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="17"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
-    </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="17"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="17"/>
-    </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="17"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17"/>
-    </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="17"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-    </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="17"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-    </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="17"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
-    </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="17"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-    </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="17"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="17"/>
-    </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="17"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="17"/>
-    </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="17"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="17"/>
-      <c r="I124" s="17"/>
-      <c r="J124" s="17"/>
-      <c r="K124" s="17"/>
-      <c r="L124" s="17"/>
-    </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="17"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="17"/>
-      <c r="I125" s="17"/>
-      <c r="J125" s="17"/>
-      <c r="K125" s="17"/>
-      <c r="L125" s="17"/>
-    </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="17"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="17"/>
-      <c r="I126" s="17"/>
-      <c r="J126" s="17"/>
-      <c r="K126" s="17"/>
-      <c r="L126" s="17"/>
-    </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="17"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="17"/>
-      <c r="I127" s="17"/>
-      <c r="J127" s="17"/>
-      <c r="K127" s="17"/>
-      <c r="L127" s="17"/>
-    </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="17"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="17"/>
-      <c r="I128" s="17"/>
-      <c r="J128" s="17"/>
-      <c r="K128" s="17"/>
-      <c r="L128" s="17"/>
-    </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="17"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="17"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="17"/>
-      <c r="K129" s="17"/>
-      <c r="L129" s="17"/>
-    </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="17"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="17"/>
-      <c r="H130" s="17"/>
-      <c r="I130" s="17"/>
-      <c r="J130" s="17"/>
-      <c r="K130" s="17"/>
-      <c r="L130" s="17"/>
-    </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="17"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="17"/>
-      <c r="G131" s="17"/>
-      <c r="H131" s="17"/>
-      <c r="I131" s="17"/>
-      <c r="J131" s="17"/>
-      <c r="K131" s="17"/>
-      <c r="L131" s="17"/>
-    </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="17"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="17"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="17"/>
-      <c r="K132" s="17"/>
-      <c r="L132" s="17"/>
-    </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="17"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="17"/>
-      <c r="G133" s="17"/>
-      <c r="H133" s="17"/>
-      <c r="I133" s="17"/>
-      <c r="J133" s="17"/>
-      <c r="K133" s="17"/>
-      <c r="L133" s="17"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="CA29" sheet="1" objects="1" scenarios="1"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I134:I1283">
-      <formula1>$B$1:$B$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L231:L1255">
-      <formula1>$D$1:$D$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H134:H1411">
-      <formula1>$C$1:$C$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A134:A1558">
-      <formula1>$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1248:J1257">
-      <formula1>$E$14:$E$49</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J134:J1247">
-      <formula1>$E$1:$E$49</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3452,94 +1486,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="55" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="13" t="s">
         <v>92</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="55"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3552,7 +1586,7 @@
         <v>123</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>124</v>
@@ -3568,7 +1602,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K3" s="21" t="s">
         <v>20</v>
@@ -3613,7 +1647,7 @@
         <v>123</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>128</v>
@@ -3651,16 +1685,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="S4" s="30" t="s">
-        <v>208</v>
-      </c>
       <c r="T4" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U4" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3674,7 +1708,7 @@
         <v>123</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>127</v>
@@ -3703,7 +1737,7 @@
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P5" s="39" t="s">
         <v>19</v>
@@ -3735,14 +1769,14 @@
         <v>123</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H6" s="27">
         <v>4</v>
@@ -3764,7 +1798,7 @@
         <v>52</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P6" s="39" t="s">
         <v>19</v>
@@ -3773,16 +1807,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="S6" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="S6" s="30" t="s">
+      <c r="T6" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="U6" s="30" t="s">
         <v>209</v>
-      </c>
-      <c r="U6" s="30" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3873,7 +1907,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>20</v>
@@ -3895,16 +1929,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="S8" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="S8" s="30" t="s">
-        <v>208</v>
-      </c>
       <c r="T8" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U8" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3934,7 +1968,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K9" s="21" t="s">
         <v>20</v>
@@ -3986,7 +2020,7 @@
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10" s="27">
         <v>8</v>
@@ -3995,7 +2029,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>20</v>
@@ -4008,7 +2042,7 @@
         <v>45</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P10" s="39" t="s">
         <v>19</v>
@@ -4017,16 +2051,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S10" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T10" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4069,7 +2103,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P11" s="39" t="s">
         <v>19</v>
@@ -4110,7 +2144,7 @@
         <v>142</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H12" s="27">
         <v>10</v>
@@ -4119,7 +2153,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>20</v>
@@ -4141,16 +2175,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T12" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4195,7 +2229,7 @@
         <v>51</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P13" s="39" t="s">
         <v>20</v>
@@ -4204,16 +2238,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S13" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T13" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4234,7 +2268,7 @@
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H14" s="27">
         <v>12</v>
@@ -4256,7 +2290,7 @@
         <v>52</v>
       </c>
       <c r="O14" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P14" s="39" t="s">
         <v>19</v>
@@ -4265,16 +2299,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T14" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4385,16 +2419,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S16" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S16" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T16" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4446,16 +2480,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S17" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S17" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T17" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4507,16 +2541,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S18" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S18" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T18" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4568,19 +2602,19 @@
         <v>6</v>
       </c>
       <c r="R19" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S19" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S19" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T19" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -4598,7 +2632,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H20" s="27">
         <v>18</v>
@@ -4629,16 +2663,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S20" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S20" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T20" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4657,7 +2691,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="14"/>
       <c r="G21" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H21" s="34">
         <v>19</v>
@@ -4666,7 +2700,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>20</v>
@@ -4679,7 +2713,7 @@
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P21" s="39" t="s">
         <v>19</v>
@@ -4694,7 +2728,7 @@
         <v>199</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="U21" s="6" t="s">
         <v>201</v>
@@ -4749,16 +2783,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S22" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S22" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T22" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4810,16 +2844,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S23" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S23" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T23" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4871,16 +2905,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S24" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S24" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T24" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4901,7 +2935,7 @@
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H25" s="27">
         <v>23</v>
@@ -4932,16 +2966,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S25" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S25" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T25" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4982,7 +3016,7 @@
         <v>54</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P26" s="39" t="s">
         <v>19</v>
@@ -4991,16 +3025,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S26" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S26" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T26" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5041,7 +3075,7 @@
         <v>54</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P27" s="39" t="s">
         <v>19</v>
@@ -5050,16 +3084,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S27" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S27" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T27" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5087,7 +3121,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K28" s="21" t="s">
         <v>20</v>
@@ -5100,7 +3134,7 @@
         <v>54</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P28" s="39" t="s">
         <v>19</v>
@@ -5109,16 +3143,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S28" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S28" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T28" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5146,7 +3180,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>20</v>
@@ -5182,7 +3216,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="14"/>
       <c r="G30" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H30" s="27">
         <v>28</v>
@@ -5191,7 +3225,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K30" s="21" t="s">
         <v>20</v>
@@ -5211,16 +3245,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S30" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S30" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T30" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U30" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5268,16 +3302,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S31" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="S31" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="T31" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
@@ -5466,10 +3500,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U31">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5484,12 +3521,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I31 P3:P31">
@@ -5535,4 +3566,1965 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O133"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="34" style="16" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="18" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="17" style="16" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="16"/>
+    <col min="14" max="14" width="24.28515625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="16" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+    </row>
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+    </row>
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+    </row>
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+    </row>
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+    </row>
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+    </row>
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+    </row>
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+    </row>
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+    </row>
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+    </row>
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+    </row>
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+    </row>
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+    </row>
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+    </row>
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+    </row>
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+    </row>
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+    </row>
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+    </row>
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+    </row>
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+    </row>
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+    </row>
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+    </row>
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+    </row>
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+    </row>
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+    </row>
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+    </row>
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+    </row>
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+    </row>
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+    </row>
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+    </row>
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+    </row>
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="17"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+    </row>
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+    </row>
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+    </row>
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+    </row>
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+    </row>
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+    </row>
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+    </row>
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+    </row>
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+    </row>
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="17"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+    </row>
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="17"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+    </row>
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="17"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17"/>
+    </row>
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="17"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17"/>
+    </row>
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="17"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+    </row>
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="17"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+    </row>
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="17"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+    </row>
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="17"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+    </row>
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="17"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+    </row>
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="17"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+    </row>
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="17"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="CA29" sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I134:I1283">
+      <formula1>$B$1:$B$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L231:L1255">
+      <formula1>$D$1:$D$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H134:H1411">
+      <formula1>$C$1:$C$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A134:A1558">
+      <formula1>$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1248:J1257">
+      <formula1>$E$14:$E$49</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J134:J1247">
+      <formula1>$E$1:$E$49</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/fuentes/contenidos/grado09/guion04/ESCALETA_CN_09_04_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion04/ESCALETA_CN_09_04_CO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="255">
   <si>
     <t>Asignatura</t>
   </si>
@@ -443,9 +443,6 @@
     <t xml:space="preserve">Se debe hacer un texto con los términos taxa, taxón, análogos, homólogos y binomial. Expandir si se quiere. </t>
   </si>
   <si>
-    <t>Se hace una imagen que englobe las distintas categorías taxonómicas; puede ser en forma de circulos, uno dentro de otro, por ejemplo. Los círculos hablan de dominio, reino, filo/división, clase, orden, familia, género y especie. Con el botón de información se explica que esta es una estructura jerarquica, y lo que haga falta para entender el recurso. En cada categoría, se pone como ejemplo la clasificación del ser humano (por ejemplo, familia hominidae, phylum chordata, etc.). En la aprte de especie se debe hacer énfasis en la importancia de esta categoría, y explicar que es dificil definirla, pues la definición más común sólo aplica para organismos con reproducción sexual. Decir que se está trabajando aún en eso.</t>
-  </si>
-  <si>
     <t>¿Cómo se organizan los taxones?</t>
   </si>
   <si>
@@ -461,18 +458,12 @@
     <t xml:space="preserve">Los tres dominios de la naturaleza </t>
   </si>
   <si>
-    <t>Las palabras de la sopa de letras don dominio, reino, filo, división, clase, orden, familia, género y especie</t>
-  </si>
-  <si>
     <t>Los dominios de la naturaleza</t>
   </si>
   <si>
     <t>Interactivo que explica los tres dominios de la naturaleza</t>
   </si>
   <si>
-    <t>Actividad acerca del dominio Archaea</t>
-  </si>
-  <si>
     <t>Eukarya: el dominio eucariota</t>
   </si>
   <si>
@@ -660,9 +651,6 @@
   </si>
   <si>
     <t>Actividad acerca de la jerarquía de los taxones</t>
-  </si>
-  <si>
-    <t>¿A qué taxones perteneces estos organismos?</t>
   </si>
   <si>
     <t>Interactivo que expone los modelos tradicional y moderno de clasificación biológica</t>
@@ -739,9 +727,6 @@
   </si>
   <si>
     <t>Recurso M15A-02</t>
-  </si>
-  <si>
-    <t>Recurso M10A-03</t>
   </si>
   <si>
     <t>Mediante este recurso se presenta un panorama histórico de la clasificación biológica, haciendo énfasis en sus representantes y las contribuciones de cada uno de ellos. Los botones de la izquierda hablan sobre: • Aristóteles (384 a.C.) • Carlos Linneo (1707 – 1778) • Erns Haeckel (1834 – 1919) • Herbert Copeland (1902 – 1968) • Robert Whittaker (1920 – 1980) • Lynn Margulis (1938 – 2011) • Carl Woese (1928 – 2012)</t>
@@ -1081,6 +1066,25 @@
   </si>
   <si>
     <t>La primera ficha explica qué es la clasificación biológica y por qué es importante. Segunda ficha explica el modelo tradicional de clasificación, con procariotas y eucariotas, y 5 reinos incluyendo el mónera. La tercera ficha explica los 3 dominios, con un reino cada uno de los dos primeros y con 4 reinos el eucariota. Se debe explicar que Archaea es en latín y arquea en español, lo mismo para Eukarya y Fungi.</t>
+  </si>
+  <si>
+    <t>Se hace una imagen que englobe las distintas categorías taxonómicas; puede ser en forma de circulos, uno dentro de otro, por ejemplo. Los círculos hablan de dominio, reino, filo/división, clase, orden, familia, género y especie. Con el botón de información se explica que esta es una estructura jerarquica, y lo que haga falta para entender el recurso. En cada categoría, se pone como ejemplo la clasificación del ser humano (por ejemplo, familia hominidae, phylum chordata, etc.). En la parte de especie se debe hacer énfasis en la importancia de esta categoría, y explicar que es dificil definirla, pues la definición más común sólo aplica para organismos con reproducción sexual. Decir que se está trabajando aún en eso.</t>
+  </si>
+  <si>
+    <r>
+      <t>Actividad acerca del dominio</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Archaea</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1398,25 +1402,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1441,6 +1433,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3708,10 +3712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U111"/>
+  <dimension ref="A1:U110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3739,94 +3743,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="55" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="13" t="s">
         <v>92</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="55"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3839,14 +3843,14 @@
         <v>123</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>124</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="35" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H3" s="34">
         <v>1</v>
@@ -3855,7 +3859,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K3" s="21" t="s">
         <v>20</v>
@@ -3868,7 +3872,7 @@
       </c>
       <c r="N3" s="22"/>
       <c r="O3" s="23" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P3" s="39" t="s">
         <v>19</v>
@@ -3877,16 +3881,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="U3" s="24" t="s">
         <v>183</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="U3" s="24" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3900,14 +3904,14 @@
         <v>123</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="28" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H4" s="27">
         <v>2</v>
@@ -3938,16 +3942,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="U4" s="30" t="s">
         <v>191</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="T4" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="U4" s="30" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3961,14 +3965,14 @@
         <v>123</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="28" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H5" s="27">
         <v>3</v>
@@ -3990,7 +3994,7 @@
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="33" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P5" s="39" t="s">
         <v>19</v>
@@ -3999,16 +4003,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="U5" s="30" t="s">
         <v>183</v>
-      </c>
-      <c r="S5" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="U5" s="30" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4022,14 +4026,14 @@
         <v>123</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="28" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H6" s="27">
         <v>4</v>
@@ -4051,7 +4055,7 @@
         <v>52</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P6" s="39" t="s">
         <v>19</v>
@@ -4060,16 +4064,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="S6" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="U6" s="30" t="s">
         <v>191</v>
-      </c>
-      <c r="S6" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="T6" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="U6" s="30" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4121,16 +4125,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="U7" s="30" t="s">
         <v>183</v>
-      </c>
-      <c r="S7" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="T7" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="U7" s="30" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4151,7 +4155,7 @@
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H8" s="27">
         <v>6</v>
@@ -4160,7 +4164,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>20</v>
@@ -4182,16 +4186,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="T8" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="U8" s="30" t="s">
         <v>191</v>
-      </c>
-      <c r="S8" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="T8" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="U8" s="30" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4212,7 +4216,7 @@
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="27">
         <v>7</v>
@@ -4221,7 +4225,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K9" s="21" t="s">
         <v>20</v>
@@ -4234,7 +4238,7 @@
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="27" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="P9" s="39" t="s">
         <v>19</v>
@@ -4243,16 +4247,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="T9" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="U9" s="30" t="s">
         <v>183</v>
-      </c>
-      <c r="S9" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="T9" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="U9" s="30" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4273,7 +4277,7 @@
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="28" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H10" s="27">
         <v>8</v>
@@ -4282,7 +4286,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>20</v>
@@ -4295,7 +4299,7 @@
         <v>45</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P10" s="39" t="s">
         <v>19</v>
@@ -4304,16 +4308,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="U10" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4336,16 +4340,16 @@
         <v>138</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="H11" s="27">
+        <v>178</v>
+      </c>
+      <c r="H11" s="34">
         <v>9</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K11" s="21" t="s">
         <v>19</v>
@@ -4356,25 +4360,25 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="27" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P11" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="S11" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="T11" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="R11" s="31" t="s">
+      <c r="U11" s="30" t="s">
         <v>179</v>
-      </c>
-      <c r="S11" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="T11" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="U11" s="30" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4397,7 +4401,7 @@
         <v>138</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="H12" s="27">
         <v>10</v>
@@ -4406,7 +4410,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>20</v>
@@ -4416,28 +4420,28 @@
       </c>
       <c r="M12" s="22"/>
       <c r="N12" s="22" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="P12" s="39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="6">
         <v>6</v>
       </c>
       <c r="R12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="U12" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4454,13 +4458,11 @@
         <v>131</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>138</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="F13" s="27"/>
       <c r="G13" s="28" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="H13" s="27">
         <v>11</v>
@@ -4469,7 +4471,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>20</v>
@@ -4479,28 +4481,28 @@
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>217</v>
+        <v>52</v>
+      </c>
+      <c r="O13" s="42" t="s">
+        <v>219</v>
       </c>
       <c r="P13" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="6">
         <v>6</v>
       </c>
       <c r="R13" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="U13" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4514,36 +4516,34 @@
         <v>123</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28" t="s">
-        <v>228</v>
+        <v>144</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="H14" s="27">
         <v>12</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>135</v>
+        <v>19</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="42" t="s">
-        <v>223</v>
+      <c r="L14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="14" t="s">
+        <v>251</v>
       </c>
       <c r="P14" s="39" t="s">
         <v>19</v>
@@ -4552,16 +4552,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4575,34 +4575,36 @@
         <v>123</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="F15" s="14"/>
       <c r="G15" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="27">
+        <v>242</v>
+      </c>
+      <c r="H15" s="34">
         <v>13</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="K15" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="O15" s="14" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
       <c r="P15" s="39" t="s">
         <v>19</v>
@@ -4611,16 +4613,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4634,14 +4636,14 @@
         <v>123</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H16" s="27">
         <v>14</v>
@@ -4650,7 +4652,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K16" s="21" t="s">
         <v>20</v>
@@ -4663,7 +4665,7 @@
         <v>27</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P16" s="39" t="s">
         <v>19</v>
@@ -4672,16 +4674,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="U16" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4695,14 +4697,14 @@
         <v>123</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H17" s="27">
         <v>15</v>
@@ -4711,7 +4713,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="K17" s="21" t="s">
         <v>20</v>
@@ -4724,7 +4726,7 @@
         <v>27</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P17" s="39" t="s">
         <v>19</v>
@@ -4733,16 +4735,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="U17" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4756,14 +4758,14 @@
         <v>123</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="3" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="H18" s="27">
         <v>16</v>
@@ -4772,7 +4774,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="K18" s="21" t="s">
         <v>20</v>
@@ -4782,28 +4784,28 @@
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P18" s="39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="6">
         <v>6</v>
       </c>
       <c r="R18" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="U18" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4817,23 +4819,23 @@
         <v>123</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="27">
+        <v>225</v>
+      </c>
+      <c r="H19" s="34">
         <v>17</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>20</v>
@@ -4843,28 +4845,28 @@
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P19" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="6">
         <v>6</v>
       </c>
       <c r="R19" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="U19" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4878,36 +4880,34 @@
         <v>123</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="14"/>
       <c r="G20" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H20" s="27">
         <v>18</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="K20" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12" t="s">
-        <v>52</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="12"/>
       <c r="O20" s="14" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="P20" s="39" t="s">
         <v>19</v>
@@ -4916,16 +4916,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4939,34 +4939,36 @@
         <v>123</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="F21" s="14"/>
       <c r="G21" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H21" s="34">
+        <v>247</v>
+      </c>
+      <c r="H21" s="27">
         <v>19</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N21" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O21" s="14" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="P21" s="39" t="s">
         <v>19</v>
@@ -4975,16 +4977,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4998,14 +5000,14 @@
         <v>123</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H22" s="27">
         <v>20</v>
@@ -5014,7 +5016,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K22" s="21" t="s">
         <v>20</v>
@@ -5027,7 +5029,7 @@
         <v>32</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P22" s="39" t="s">
         <v>19</v>
@@ -5036,16 +5038,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="U22" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="U22" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5059,23 +5061,23 @@
         <v>123</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H23" s="27">
+        <v>162</v>
+      </c>
+      <c r="H23" s="34">
         <v>21</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="K23" s="21" t="s">
         <v>20</v>
@@ -5085,10 +5087,10 @@
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P23" s="39" t="s">
         <v>19</v>
@@ -5097,16 +5099,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="U23" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5120,14 +5122,14 @@
         <v>123</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="3" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="H24" s="27">
         <v>22</v>
@@ -5136,7 +5138,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K24" s="21" t="s">
         <v>20</v>
@@ -5146,10 +5148,10 @@
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P24" s="39" t="s">
         <v>19</v>
@@ -5158,16 +5160,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="U24" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T24" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5181,14 +5183,12 @@
         <v>123</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="14"/>
       <c r="G25" s="3" t="s">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="H25" s="27">
         <v>23</v>
@@ -5197,7 +5197,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K25" s="21" t="s">
         <v>20</v>
@@ -5207,10 +5207,10 @@
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="P25" s="39" t="s">
         <v>19</v>
@@ -5219,16 +5219,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="U25" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5242,12 +5242,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="14"/>
       <c r="G26" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H26" s="27">
         <v>24</v>
@@ -5256,7 +5256,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K26" s="21" t="s">
         <v>20</v>
@@ -5269,7 +5269,7 @@
         <v>54</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P26" s="39" t="s">
         <v>19</v>
@@ -5278,16 +5278,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="U26" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T26" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5301,12 +5301,12 @@
         <v>123</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="14"/>
       <c r="G27" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H27" s="34">
         <v>25</v>
@@ -5315,7 +5315,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="K27" s="21" t="s">
         <v>20</v>
@@ -5328,7 +5328,7 @@
         <v>54</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="P27" s="39" t="s">
         <v>19</v>
@@ -5337,16 +5337,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="U27" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="U27" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5360,12 +5360,12 @@
         <v>123</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="14"/>
       <c r="G28" s="3" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="H28" s="27">
         <v>26</v>
@@ -5374,39 +5374,25 @@
         <v>20</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K28" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M28" s="12"/>
-      <c r="N28" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>224</v>
-      </c>
+      <c r="N28" s="12"/>
+      <c r="O28" s="14"/>
       <c r="P28" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="6">
-        <v>6</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T28" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="U28" s="6" t="s">
-        <v>194</v>
-      </c>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="6"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -5419,39 +5405,51 @@
         <v>123</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="14"/>
       <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="34">
+        <v>216</v>
+      </c>
+      <c r="H29" s="27">
         <v>27</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="N29" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="O29" s="14"/>
       <c r="P29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="6"/>
+      <c r="Q29" s="6">
+        <v>6</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
@@ -5464,12 +5462,12 @@
         <v>123</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="14"/>
       <c r="G30" s="3" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="H30" s="27">
         <v>28</v>
@@ -5478,7 +5476,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="K30" s="21" t="s">
         <v>20</v>
@@ -5488,272 +5486,221 @@
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="O30" s="14"/>
       <c r="P30" s="39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="6">
         <v>6</v>
       </c>
       <c r="R30" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="U30" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="S30" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T30" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="U30" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="27">
-        <v>29</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="O31" s="14"/>
-      <c r="P31" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>6</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="T31" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="U31" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5768,16 +5715,10 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I31 P3:P31">
-      <formula1>$D$38:$D$39</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P30 I3:I30">
+      <formula1>$D$37:$D$38</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5789,31 +5730,31 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N31</xm:sqref>
+          <xm:sqref>N3:N30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A31</xm:sqref>
+          <xm:sqref>A3:A30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K31</xm:sqref>
+          <xm:sqref>K3:K30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L31</xm:sqref>
+          <xm:sqref>L3:L30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M31</xm:sqref>
+          <xm:sqref>M3:M30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado09/guion04/ESCALETA_CN_09_04_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion04/ESCALETA_CN_09_04_CO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="259">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1085,6 +1085,18 @@
       </rPr>
       <t xml:space="preserve"> Archaea</t>
     </r>
+  </si>
+  <si>
+    <t>Recurso M10A-03</t>
+  </si>
+  <si>
+    <t>Hacer grupos fáciles de indentificar sin mayores conocimientos taxonómicos, mencionando su categoría y nombre. La idea es ubicar orga nismos en estos grupos, de manera que no haya lugar a confusiones. Por ejemplo: Reino Plantae - Pasto, Roble. Clase Insecta - Hormigas, Escarabajos. No repetir categoría taxonómica, no haces una que exijan saber de taxonomía, y no hacer respuestas que den para dos contenedores (Animales, Insecta).</t>
+  </si>
+  <si>
+    <t>Clasifica los siguientes organismos</t>
+  </si>
+  <si>
+    <t>Actividad  para clasificar organismos y afianzar la comprensión del concepto de categoría taxonómica</t>
   </si>
 </sst>
 </file>
@@ -3712,10 +3724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U110"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4382,9 +4394,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>122</v>
       </c>
@@ -4401,16 +4411,16 @@
         <v>138</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="27">
+        <v>257</v>
+      </c>
+      <c r="H12" s="34">
         <v>10</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>20</v>
@@ -4420,27 +4430,27 @@
       </c>
       <c r="M12" s="22"/>
       <c r="N12" s="22" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="P12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="30">
         <v>6</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="T12" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="U12" s="6" t="s">
+      <c r="T12" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="U12" s="30" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4458,20 +4468,22 @@
         <v>131</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="27"/>
+        <v>137</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>138</v>
+      </c>
       <c r="G13" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="H13" s="27">
+        <v>142</v>
+      </c>
+      <c r="H13" s="34">
         <v>11</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>20</v>
@@ -4481,13 +4493,13 @@
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="42" t="s">
-        <v>219</v>
+        <v>51</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>213</v>
       </c>
       <c r="P13" s="39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="6">
         <v>6</v>
@@ -4499,7 +4511,7 @@
         <v>189</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="U13" s="6" t="s">
         <v>191</v>
@@ -4516,34 +4528,36 @@
         <v>123</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28" t="s">
+        <v>224</v>
       </c>
       <c r="H14" s="27">
         <v>12</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>146</v>
+        <v>20</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="14" t="s">
-        <v>251</v>
+      <c r="L14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="42" t="s">
+        <v>219</v>
       </c>
       <c r="P14" s="39" t="s">
         <v>19</v>
@@ -4552,16 +4566,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4577,34 +4591,32 @@
       <c r="D15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="14"/>
       <c r="G15" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H15" s="34">
+        <v>145</v>
+      </c>
+      <c r="H15" s="27">
         <v>13</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="K15" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12" t="s">
-        <v>27</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="12"/>
       <c r="O15" s="14" t="s">
-        <v>155</v>
+        <v>251</v>
       </c>
       <c r="P15" s="39" t="s">
         <v>19</v>
@@ -4613,16 +4625,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4639,11 +4651,11 @@
         <v>144</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H16" s="27">
         <v>14</v>
@@ -4652,7 +4664,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="K16" s="21" t="s">
         <v>20</v>
@@ -4680,7 +4692,7 @@
         <v>189</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U16" s="6" t="s">
         <v>191</v>
@@ -4700,20 +4712,20 @@
         <v>144</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H17" s="27">
+        <v>241</v>
+      </c>
+      <c r="H17" s="34">
         <v>15</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="K17" s="21" t="s">
         <v>20</v>
@@ -4741,7 +4753,7 @@
         <v>189</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U17" s="6" t="s">
         <v>191</v>
@@ -4765,7 +4777,7 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="3" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="H18" s="27">
         <v>16</v>
@@ -4774,7 +4786,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="K18" s="21" t="s">
         <v>20</v>
@@ -4784,13 +4796,13 @@
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P18" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="6">
         <v>6</v>
@@ -4802,7 +4814,7 @@
         <v>189</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="U18" s="6" t="s">
         <v>191</v>
@@ -4822,20 +4834,20 @@
         <v>144</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H19" s="34">
+        <v>150</v>
+      </c>
+      <c r="H19" s="27">
         <v>17</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>20</v>
@@ -4845,13 +4857,13 @@
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P19" s="39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="6">
         <v>6</v>
@@ -4863,7 +4875,7 @@
         <v>189</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="U19" s="6" t="s">
         <v>191</v>
@@ -4880,34 +4892,36 @@
         <v>123</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="F20" s="14"/>
       <c r="G20" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H20" s="27">
         <v>18</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="K20" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="O20" s="14" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="P20" s="39" t="s">
         <v>19</v>
@@ -4916,16 +4930,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4941,34 +4955,32 @@
       <c r="D21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="14"/>
       <c r="G21" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H21" s="27">
+        <v>227</v>
+      </c>
+      <c r="H21" s="34">
         <v>19</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12" t="s">
-        <v>32</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" s="12"/>
       <c r="O21" s="14" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="P21" s="39" t="s">
         <v>19</v>
@@ -4977,16 +4989,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5003,20 +5015,20 @@
         <v>156</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="H22" s="27">
+        <v>247</v>
+      </c>
+      <c r="H22" s="34">
         <v>20</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K22" s="21" t="s">
         <v>20</v>
@@ -5044,7 +5056,7 @@
         <v>189</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U22" s="6" t="s">
         <v>191</v>
@@ -5064,11 +5076,11 @@
         <v>156</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="3" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="H23" s="34">
         <v>21</v>
@@ -5077,7 +5089,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="K23" s="21" t="s">
         <v>20</v>
@@ -5087,10 +5099,10 @@
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P23" s="39" t="s">
         <v>19</v>
@@ -5105,7 +5117,7 @@
         <v>189</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U23" s="6" t="s">
         <v>191</v>
@@ -5125,11 +5137,11 @@
         <v>156</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="3" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="H24" s="27">
         <v>22</v>
@@ -5138,7 +5150,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K24" s="21" t="s">
         <v>20</v>
@@ -5148,10 +5160,10 @@
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="P24" s="39" t="s">
         <v>19</v>
@@ -5166,7 +5178,7 @@
         <v>189</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="U24" s="6" t="s">
         <v>191</v>
@@ -5183,12 +5195,14 @@
         <v>123</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="F25" s="14"/>
       <c r="G25" s="3" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="H25" s="27">
         <v>23</v>
@@ -5197,7 +5211,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K25" s="21" t="s">
         <v>20</v>
@@ -5207,10 +5221,10 @@
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="P25" s="39" t="s">
         <v>19</v>
@@ -5225,7 +5239,7 @@
         <v>189</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>191</v>
@@ -5247,7 +5261,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="14"/>
       <c r="G26" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H26" s="27">
         <v>24</v>
@@ -5256,7 +5270,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K26" s="21" t="s">
         <v>20</v>
@@ -5269,7 +5283,7 @@
         <v>54</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="P26" s="39" t="s">
         <v>19</v>
@@ -5284,7 +5298,7 @@
         <v>189</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U26" s="6" t="s">
         <v>191</v>
@@ -5306,7 +5320,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="14"/>
       <c r="G27" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H27" s="34">
         <v>25</v>
@@ -5315,7 +5329,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="K27" s="21" t="s">
         <v>20</v>
@@ -5328,7 +5342,7 @@
         <v>54</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="P27" s="39" t="s">
         <v>19</v>
@@ -5343,7 +5357,7 @@
         <v>189</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U27" s="6" t="s">
         <v>191</v>
@@ -5360,12 +5374,12 @@
         <v>123</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="14"/>
       <c r="G28" s="3" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="H28" s="27">
         <v>26</v>
@@ -5374,25 +5388,39 @@
         <v>20</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K28" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="14"/>
+      <c r="N28" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>220</v>
+      </c>
       <c r="P28" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="6"/>
+      <c r="Q28" s="6">
+        <v>6</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -5410,7 +5438,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="14"/>
       <c r="G29" s="3" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="H29" s="27">
         <v>27</v>
@@ -5419,37 +5447,25 @@
         <v>20</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M29" s="12"/>
-      <c r="N29" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N29" s="12"/>
       <c r="O29" s="14"/>
       <c r="P29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="6">
-        <v>6</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="U29" s="6" t="s">
-        <v>191</v>
-      </c>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="6"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
@@ -5467,7 +5483,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="14"/>
       <c r="G30" s="3" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="H30" s="27">
         <v>28</v>
@@ -5476,7 +5492,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="K30" s="21" t="s">
         <v>20</v>
@@ -5486,11 +5502,11 @@
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="O30" s="14"/>
       <c r="P30" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="6">
         <v>6</v>
@@ -5502,196 +5518,475 @@
         <v>189</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U30" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="34">
+        <v>29</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31" s="14"/>
+      <c r="P31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>6</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="F75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="F76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="F77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="F78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="F79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="F80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="F81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="F82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="F83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="F84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="F85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="F86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="F87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="F88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="F89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="F90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="F91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="F92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="F93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="F94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="F95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="F96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="F97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="F98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="F99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="F100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="F101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="F102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="F103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="F104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="F105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="F106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="F107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="F108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="F109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="F110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>117</v>
       </c>
+      <c r="F111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5717,8 +6012,8 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P30 I3:I30">
-      <formula1>$D$37:$D$38</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P31 I3:I31">
+      <formula1>$D$38:$D$39</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5730,31 +6025,31 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N30</xm:sqref>
+          <xm:sqref>N3:N31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A30</xm:sqref>
+          <xm:sqref>A3:A31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K30</xm:sqref>
+          <xm:sqref>K3:K31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L30</xm:sqref>
+          <xm:sqref>L3:L31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M30</xm:sqref>
+          <xm:sqref>M3:M31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado09/guion04/ESCALETA_CN_09_04_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion04/ESCALETA_CN_09_04_CO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="260">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1097,6 +1097,9 @@
   </si>
   <si>
     <t>Actividad  para clasificar organismos y afianzar la comprensión del concepto de categoría taxonómica</t>
+  </si>
+  <si>
+    <t>¿Qué es la taxonomía?</t>
   </si>
 </sst>
 </file>
@@ -1414,13 +1417,25 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1445,18 +1460,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3726,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3755,94 +3758,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="48"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="13" t="s">
         <v>92</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="55"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -4106,7 +4109,7 @@
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="28" t="s">
-        <v>131</v>
+        <v>259</v>
       </c>
       <c r="H7" s="34">
         <v>5</v>
@@ -5990,12 +5993,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -6010,6 +6007,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P31 I3:I31">
